--- a/entrada_validacao.xlsx
+++ b/entrada_validacao.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabri\OneDrive\Area_de _trabalho\Transferencia de calor\APS_4\TrelicaSolve\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berna\Desktop\Insper5thSemester\TransCal\APS4-TransCal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F516B5-0BE0-4D28-B1B5-EB9EC15C8F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4C65FE-F97B-4128-81B1-A3D7BF5C4C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3912" yWindow="1740" windowWidth="19128" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nos" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,14 +89,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -145,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -177,10 +169,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,15 +513,15 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="11.6328125" customWidth="1"/>
+    <col min="1" max="4" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
@@ -542,7 +533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -551,10 +542,11 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="9">
+        <f>COUNT(A2:A1048576)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>0.14399999999999999</v>
       </c>
@@ -564,7 +556,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>0.192</v>
       </c>
@@ -574,7 +566,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>0.28799999999999998</v>
       </c>
@@ -582,7 +574,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>0.38400000000000001</v>
       </c>
@@ -590,19 +582,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>0.432</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="2">
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>0.57599999999999996</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="2">
         <v>0</v>
       </c>
     </row>
@@ -615,16 +607,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="11.6328125" customWidth="1"/>
+    <col min="1" max="7" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -642,7 +634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -661,12 +653,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3">
         <v>200000000000</v>
@@ -678,12 +670,12 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3">
         <v>200000000000</v>
@@ -692,12 +684,12 @@
         <v>5.2499999999999997E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5" s="3">
         <v>200000000000</v>
@@ -706,12 +698,12 @@
         <v>5.2499999999999997E-6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
         <v>3</v>
-      </c>
-      <c r="B6" s="1">
-        <v>5</v>
       </c>
       <c r="C6" s="3">
         <v>200000000000</v>
@@ -720,12 +712,12 @@
         <v>5.2499999999999997E-6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
         <v>4</v>
-      </c>
-      <c r="B7" s="1">
-        <v>5</v>
       </c>
       <c r="C7" s="3">
         <v>200000000000</v>
@@ -734,12 +726,12 @@
         <v>5.2499999999999997E-6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="3">
         <v>200000000000</v>
@@ -748,7 +740,7 @@
         <v>5.2499999999999997E-6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -762,12 +754,12 @@
         <v>5.2499999999999997E-6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C10" s="3">
         <v>200000000000</v>
@@ -776,12 +768,12 @@
         <v>5.2499999999999997E-6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
         <v>5</v>
-      </c>
-      <c r="B11" s="1">
-        <v>7</v>
       </c>
       <c r="C11" s="3">
         <v>200000000000</v>
@@ -790,12 +782,12 @@
         <v>5.2499999999999997E-6</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B12" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C12" s="3">
         <v>200000000000</v>
@@ -815,15 +807,15 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="11.6328125" customWidth="1"/>
+    <col min="1" max="5" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>8</v>
       </c>
@@ -838,7 +830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>2</v>
       </c>
@@ -854,7 +846,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -867,7 +859,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>4</v>
       </c>
@@ -880,7 +872,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -893,7 +885,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>6</v>
       </c>
@@ -906,7 +898,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -917,114 +909,114 @@
         <v>-1500</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1033,7 +1025,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1041,16 +1032,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="11.6328125" customWidth="1"/>
+    <col min="1" max="4" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>8</v>
       </c>
@@ -1062,7 +1053,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1075,18 +1066,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
         <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
         <v>7</v>
       </c>
       <c r="B4" s="2">
@@ -1095,114 +1086,111 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="12"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1210,5 +1198,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>